--- a/Volymberäkning.xlsx
+++ b/Volymberäkning.xlsx
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -87,18 +87,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -110,6 +129,56 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -117,15 +186,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +505,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,225 +513,225 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>29</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>B3*C3</f>
         <v>87</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>B3*G3</f>
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <f>C6*0.5</f>
         <v>2500</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:G4" si="0">D6*0.5</f>
         <v>5200</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>8440</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>12328</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>16993.599999999999</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H7" si="1">B4*C4</f>
         <v>20000</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <f t="shared" ref="I4:I7" si="2">B4*G4</f>
         <v>135948.79999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>391</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>10000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f>C5*1.2</f>
         <v>12000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <f t="shared" ref="E5:G5" si="3">D5*1.2</f>
         <v>14400</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="3"/>
         <v>17280</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f t="shared" si="3"/>
         <v>20736</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>3910000</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <f t="shared" si="2"/>
         <v>8107776</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>21</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>5000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f>D5*0.5*0.9+C6</f>
         <v>10400</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <f t="shared" ref="E6:G6" si="4">E5*0.5*0.9+D6</f>
         <v>16880</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
         <v>24656</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <f t="shared" si="4"/>
         <v>33987.199999999997</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>105000</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>713731.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2">
         <f>SUM(H3:H7)</f>
         <v>4035135</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="10">
         <f>SUM(I3:I7)</f>
         <v>8957615</v>
       </c>
